--- a/Gruppe_6/ACT/visc_plot_data_exp2.xlsx
+++ b/Gruppe_6/ACT/visc_plot_data_exp2.xlsx
@@ -379,10 +379,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0004929331852113672</v>
+        <v>0.0004324528549410979</v>
       </c>
       <c r="C2">
-        <v>6.877345968221117e-005</v>
+        <v>6.033531495956346e-005</v>
       </c>
     </row>
     <row r="3">
@@ -390,10 +390,10 @@
         <v>2.5</v>
       </c>
       <c r="B3">
-        <v>0.001509624165445592</v>
+        <v>0.001335173948999758</v>
       </c>
       <c r="C3">
-        <v>0.0001069791117293345</v>
+        <v>9.461674391386122e-005</v>
       </c>
     </row>
     <row r="4">
@@ -401,10 +401,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.004805204401284249</v>
+        <v>0.004284773914763928</v>
       </c>
       <c r="C4">
-        <v>0.0009949634864388748</v>
+        <v>0.0008872033813372173</v>
       </c>
     </row>
     <row r="5">
@@ -412,10 +412,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.08039130655058466</v>
+        <v>0.07207854630342808</v>
       </c>
       <c r="C5">
-        <v>0.002510515243359978</v>
+        <v>0.002250918625139163</v>
       </c>
     </row>
   </sheetData>
